--- a/data/Microcredenciais.xlsx
+++ b/data/Microcredenciais.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toja\Desktop\continUA\mywork\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\toja\UACurriculumData\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B2D706-0A0E-4C74-961B-A72A368A691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F6EAF5-6DFE-49E7-BE5F-8F325AA6B7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="-7365" windowWidth="21600" windowHeight="11295" xr2:uid="{EA933DF2-242A-4803-B1B1-A7212124EF1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA933DF2-242A-4803-B1B1-A7212124EF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Folha1!$A$1:$D$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Folha1!$A$1:$D$150</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="174">
   <si>
     <t>Acessibilidade Digital</t>
   </si>
@@ -270,9 +270,6 @@
     <t>TecnologiasInovadorasdeConservaçãoeModificaçãodeAlimentos</t>
   </si>
   <si>
-    <t>VisãoArtificial</t>
-  </si>
-  <si>
     <t>Biodiversidade e Ecologia: Ferramentas de Formação</t>
   </si>
   <si>
@@ -351,9 +348,6 @@
     <t>Produção Audiovisual Digital para Ficção/NãoFicção</t>
   </si>
   <si>
-    <t>Programação CAM- Estratégias de Maquinação a 2,3e5Eixos</t>
-  </si>
-  <si>
     <t>CODDISCIPLINACOD</t>
   </si>
   <si>
@@ -537,20 +531,41 @@
     <t>Diversidade e Ecologia Animal em Sistemas Florestais - Insetos E Outros Invertebrados</t>
   </si>
   <si>
-    <t>Biodiversidade e Serviços ee Ecossistemas em Sistemas Florestais</t>
-  </si>
-  <si>
     <t>Utilização de Substâncias Bioativas em Contexto de Produção Animal</t>
   </si>
   <si>
     <t>Sistemas e Políticas de Saúde</t>
+  </si>
+  <si>
+    <t>Biodiversidade e Serviços de Ecossistemas em Sistemas Florestais</t>
+  </si>
+  <si>
+    <t>Visão Artificial</t>
+  </si>
+  <si>
+    <t>Inteligência Artificial Generativa em Marketing Digital</t>
+  </si>
+  <si>
+    <t>Direito Aplicado ao Marketing Digital</t>
+  </si>
+  <si>
+    <t>Business Intelligence e Análise de Dados com Power Bi</t>
+  </si>
+  <si>
+    <t>Contabilidade e Fiscalidade para Não Financeiros</t>
+  </si>
+  <si>
+    <t>Análise Financeira para Não Financeiros</t>
+  </si>
+  <si>
+    <t>Programação CAM - Estratégias de Maquinação a 2, 3 e 5 Eixos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +630,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -647,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -670,12 +698,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -720,7 +776,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -735,6 +790,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1050,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B0EC23-405A-4BB4-BF43-E1C8AC1AED55}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="149" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="149" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,22 +1157,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="5">
         <v>6001</v>
@@ -1094,7 +1186,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="5">
         <v>6002</v>
@@ -1108,7 +1200,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5">
         <v>6005</v>
@@ -1122,7 +1214,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="5">
         <v>6006</v>
@@ -1136,7 +1228,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="5">
         <v>6007</v>
@@ -1148,7 +1240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
@@ -1178,7 +1270,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="7">
         <v>6010</v>
@@ -1192,7 +1284,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="5">
         <v>6011</v>
@@ -1220,7 +1312,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="B12" s="5">
         <v>6013</v>
@@ -1248,7 +1340,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="B14" s="5">
         <v>6015</v>
@@ -1290,7 +1382,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" s="5">
         <v>6018</v>
@@ -1304,7 +1396,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" s="5">
         <v>6019</v>
@@ -1318,7 +1410,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="5">
         <v>6020</v>
@@ -1332,7 +1424,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5">
         <v>6021</v>
@@ -1360,7 +1452,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5">
         <v>6023</v>
@@ -1374,7 +1466,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23" s="5">
         <v>6024</v>
@@ -1416,7 +1508,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="5">
         <v>6027</v>
@@ -1444,7 +1536,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="5">
         <v>6029</v>
@@ -1458,7 +1550,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B29" s="5">
         <v>6030</v>
@@ -1472,7 +1564,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B30" s="5">
         <v>6031</v>
@@ -1500,7 +1592,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B32" s="5">
         <v>6076</v>
@@ -1514,7 +1606,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B33" s="5">
         <v>6077</v>
@@ -1528,7 +1620,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="5">
         <v>6078</v>
@@ -1542,7 +1634,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="5">
         <v>6079</v>
@@ -1584,7 +1676,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" s="5">
         <v>6082</v>
@@ -1598,7 +1690,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B39" s="5">
         <v>6083</v>
@@ -1612,7 +1704,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" s="5">
         <v>6084</v>
@@ -1640,7 +1732,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B42" s="5">
         <v>6086</v>
@@ -1654,7 +1746,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5">
         <v>6087</v>
@@ -1668,7 +1760,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" s="5">
         <v>6088</v>
@@ -1696,7 +1788,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" s="5">
         <v>6090</v>
@@ -1710,7 +1802,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="5">
         <v>6091</v>
@@ -1752,7 +1844,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="5">
         <v>6096</v>
@@ -1808,7 +1900,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" s="5">
         <v>6099</v>
@@ -1822,13 +1914,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B55" s="5">
-        <v>6100</v>
+        <v>6099</v>
       </c>
       <c r="C55" s="5">
-        <v>65081</v>
+        <v>65080</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>5</v>
@@ -1836,55 +1928,55 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B56" s="5">
+        <v>6100</v>
+      </c>
+      <c r="C56" s="5">
+        <v>65081</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="5">
         <v>6101</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C57" s="5">
         <v>65089</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" s="5">
-        <v>6102</v>
-      </c>
-      <c r="C57" s="5">
-        <v>65090</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>126</v>
+      <c r="A58" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B58" s="5">
+        <v>6102</v>
+      </c>
+      <c r="C58" s="5">
+        <v>65090</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="5">
         <v>6103</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C59" s="5">
         <v>65107</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="5">
-        <v>6104</v>
-      </c>
-      <c r="C59" s="5">
-        <v>65113</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>35</v>
@@ -1892,27 +1984,27 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B60" s="5">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="C60" s="5">
-        <v>65108</v>
+        <v>65113</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>63</v>
+      <c r="A61" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B61" s="5">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="C61" s="5">
-        <v>65112</v>
+        <v>65108</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>35</v>
@@ -1920,13 +2012,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B62" s="5">
-        <v>6107</v>
+        <v>6106</v>
       </c>
       <c r="C62" s="5">
-        <v>65111</v>
+        <v>65112</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>35</v>
@@ -1934,13 +2026,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B63" s="5">
-        <v>6108</v>
+        <v>6107</v>
       </c>
       <c r="C63" s="5">
-        <v>65109</v>
+        <v>65111</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>35</v>
@@ -1948,13 +2040,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="B64" s="5">
-        <v>6109</v>
+        <v>6108</v>
       </c>
       <c r="C64" s="5">
-        <v>65110</v>
+        <v>65109</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>35</v>
@@ -1962,27 +2054,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B65" s="5">
-        <v>6110</v>
+        <v>6109</v>
       </c>
       <c r="C65" s="5">
-        <v>60099</v>
+        <v>65110</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B66" s="5">
-        <v>6112</v>
+        <v>6110</v>
       </c>
       <c r="C66" s="5">
-        <v>60100</v>
+        <v>60099</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>30</v>
@@ -1990,13 +2082,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B67" s="5">
-        <v>6113</v>
+        <v>6112</v>
       </c>
       <c r="C67" s="5">
-        <v>60101</v>
+        <v>60100</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>30</v>
@@ -2004,13 +2096,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B68" s="5">
-        <v>6114</v>
+        <v>6113</v>
       </c>
       <c r="C68" s="5">
-        <v>60102</v>
+        <v>60101</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>30</v>
@@ -2018,13 +2110,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B69" s="5">
-        <v>6115</v>
+        <v>6114</v>
       </c>
       <c r="C69" s="5">
-        <v>60103</v>
+        <v>60102</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>30</v>
@@ -2032,13 +2124,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B70" s="5">
-        <v>6116</v>
+        <v>6115</v>
       </c>
       <c r="C70" s="5">
-        <v>60104</v>
+        <v>60103</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>30</v>
@@ -2046,13 +2138,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B71" s="5">
-        <v>6117</v>
+        <v>6116</v>
       </c>
       <c r="C71" s="5">
-        <v>60105</v>
+        <v>60104</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>30</v>
@@ -2060,13 +2152,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B72" s="5">
-        <v>6118</v>
+        <v>6117</v>
       </c>
       <c r="C72" s="5">
-        <v>60106</v>
+        <v>60105</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>30</v>
@@ -2074,13 +2166,13 @@
     </row>
     <row r="73" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B73" s="5">
-        <v>6119</v>
+        <v>6118</v>
       </c>
       <c r="C73" s="5">
-        <v>60107</v>
+        <v>60106</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>30</v>
@@ -2088,13 +2180,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="B74" s="5">
-        <v>6121</v>
+        <v>6119</v>
       </c>
       <c r="C74" s="5">
-        <v>60089</v>
+        <v>60107</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>30</v>
@@ -2102,13 +2194,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B75" s="5">
-        <v>6122</v>
+        <v>6121</v>
       </c>
       <c r="C75" s="5">
-        <v>60090</v>
+        <v>60089</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>30</v>
@@ -2116,13 +2208,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B76" s="5">
-        <v>6123</v>
+        <v>6122</v>
       </c>
       <c r="C76" s="5">
-        <v>60091</v>
+        <v>60090</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>30</v>
@@ -2130,13 +2222,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="5">
-        <v>6124</v>
+        <v>6123</v>
       </c>
       <c r="C77" s="5">
-        <v>60092</v>
+        <v>60091</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>30</v>
@@ -2144,13 +2236,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B78" s="5">
-        <v>6125</v>
+        <v>6124</v>
       </c>
       <c r="C78" s="5">
-        <v>60093</v>
+        <v>60092</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>30</v>
@@ -2158,13 +2250,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="B79" s="5">
-        <v>6126</v>
+        <v>6125</v>
       </c>
       <c r="C79" s="5">
-        <v>60094</v>
+        <v>60093</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>30</v>
@@ -2172,13 +2264,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B80" s="5">
-        <v>6127</v>
+        <v>6126</v>
       </c>
       <c r="C80" s="5">
-        <v>60095</v>
+        <v>60094</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>30</v>
@@ -2186,13 +2278,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B81" s="5">
-        <v>6128</v>
+        <v>6127</v>
       </c>
       <c r="C81" s="5">
-        <v>60096</v>
+        <v>60095</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>30</v>
@@ -2200,13 +2292,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B82" s="5">
-        <v>6129</v>
+        <v>6128</v>
       </c>
       <c r="C82" s="5">
-        <v>60097</v>
+        <v>60096</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>30</v>
@@ -2214,13 +2306,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B83" s="5">
-        <v>6130</v>
+        <v>6129</v>
       </c>
       <c r="C83" s="5">
-        <v>65083</v>
+        <v>60097</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>30</v>
@@ -2228,27 +2320,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="B84" s="5">
-        <v>6131</v>
+        <v>6130</v>
       </c>
       <c r="C84" s="5">
-        <v>65098</v>
+        <v>65083</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B85" s="5">
-        <v>6132</v>
+        <v>6131</v>
       </c>
       <c r="C85" s="5">
-        <v>65099</v>
+        <v>65098</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>1</v>
@@ -2256,13 +2348,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B86" s="5">
-        <v>6133</v>
+        <v>6132</v>
       </c>
       <c r="C86" s="5">
-        <v>65100</v>
+        <v>65099</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>1</v>
@@ -2270,13 +2362,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B87" s="5">
-        <v>6134</v>
+        <v>6133</v>
       </c>
       <c r="C87" s="5">
-        <v>65101</v>
+        <v>65100</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>1</v>
@@ -2284,13 +2376,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B88" s="5">
-        <v>6135</v>
+        <v>6134</v>
       </c>
       <c r="C88" s="5">
-        <v>65102</v>
+        <v>65101</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>1</v>
@@ -2298,13 +2390,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B89" s="5">
-        <v>6136</v>
+        <v>6135</v>
       </c>
       <c r="C89" s="5">
-        <v>65122</v>
+        <v>65102</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>1</v>
@@ -2312,13 +2404,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B90" s="5">
-        <v>6137</v>
+        <v>6136</v>
       </c>
       <c r="C90" s="5">
-        <v>65103</v>
+        <v>65122</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>1</v>
@@ -2326,13 +2418,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B91" s="5">
-        <v>6138</v>
+        <v>6137</v>
       </c>
       <c r="C91" s="5">
-        <v>65104</v>
+        <v>65103</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>1</v>
@@ -2340,13 +2432,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B92" s="5">
-        <v>6139</v>
+        <v>6138</v>
       </c>
       <c r="C92" s="5">
-        <v>65105</v>
+        <v>65104</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>1</v>
@@ -2354,27 +2446,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B93" s="5">
-        <v>6140</v>
+        <v>6139</v>
       </c>
       <c r="C93" s="5">
-        <v>65123</v>
+        <v>65105</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B94" s="5">
-        <v>6141</v>
+        <v>6140</v>
       </c>
       <c r="C94" s="5">
-        <v>65124</v>
+        <v>65123</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>20</v>
@@ -2382,13 +2474,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B95" s="5">
-        <v>6142</v>
+        <v>6141</v>
       </c>
       <c r="C95" s="5">
-        <v>65125</v>
+        <v>65124</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>20</v>
@@ -2396,27 +2488,27 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="B96" s="5">
-        <v>6144</v>
+        <v>6142</v>
       </c>
       <c r="C96" s="5">
-        <v>65134</v>
+        <v>65125</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B97" s="5">
-        <v>6145</v>
+        <v>6144</v>
       </c>
       <c r="C97" s="5">
-        <v>65127</v>
+        <v>65134</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>10</v>
@@ -2424,13 +2516,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B98" s="5">
-        <v>6146</v>
+        <v>6145</v>
       </c>
       <c r="C98" s="5">
-        <v>65130</v>
+        <v>65127</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>10</v>
@@ -2438,13 +2530,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B99" s="5">
-        <v>6147</v>
+        <v>6146</v>
       </c>
       <c r="C99" s="5">
-        <v>65131</v>
+        <v>65130</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>10</v>
@@ -2452,55 +2544,55 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B100" s="5">
-        <v>6148</v>
+        <v>6147</v>
       </c>
       <c r="C100" s="5">
-        <v>65132</v>
+        <v>65131</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="B101" s="5">
-        <v>6149</v>
+        <v>6148</v>
       </c>
       <c r="C101" s="5">
-        <v>65136</v>
+        <v>65132</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="B102" s="5">
-        <v>6150</v>
+        <v>6149</v>
       </c>
       <c r="C102" s="5">
-        <v>65133</v>
+        <v>65136</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B103" s="5">
-        <v>6151</v>
+        <v>6150</v>
       </c>
       <c r="C103" s="5">
-        <v>65129</v>
+        <v>65133</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>10</v>
@@ -2508,13 +2600,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="B104" s="5">
-        <v>6152</v>
+        <v>6151</v>
       </c>
       <c r="C104" s="5">
-        <v>65137</v>
+        <v>65129</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -2522,13 +2614,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="B105" s="5">
-        <v>6153</v>
+        <v>6152</v>
       </c>
       <c r="C105" s="5">
-        <v>65128</v>
+        <v>65137</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -2536,55 +2628,55 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B106" s="5">
-        <v>6154</v>
+        <v>6153</v>
       </c>
       <c r="C106" s="5">
-        <v>65135</v>
+        <v>65128</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B107" s="12">
+      <c r="A107" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" s="5">
+        <v>6154</v>
+      </c>
+      <c r="C107" s="5">
+        <v>65135</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" s="12">
         <v>6157</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C108" s="12">
         <v>65140</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="5">
-        <v>6158</v>
-      </c>
-      <c r="C108" s="5">
-        <v>65114</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="B109" s="5">
-        <v>6159</v>
+        <v>6158</v>
       </c>
       <c r="C109" s="5">
-        <v>65121</v>
+        <v>65114</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>30</v>
@@ -2592,13 +2684,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B110" s="11">
-        <v>6160</v>
+        <v>154</v>
+      </c>
+      <c r="B110" s="5">
+        <v>6159</v>
       </c>
       <c r="C110" s="5">
-        <v>65120</v>
+        <v>65121</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>30</v>
@@ -2606,13 +2698,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B111" s="5">
-        <v>6161</v>
+        <v>155</v>
+      </c>
+      <c r="B111" s="11">
+        <v>6160</v>
       </c>
       <c r="C111" s="5">
-        <v>65119</v>
+        <v>65120</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>30</v>
@@ -2620,13 +2712,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B112" s="5">
-        <v>6162</v>
+        <v>6161</v>
       </c>
       <c r="C112" s="5">
-        <v>65118</v>
+        <v>65119</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>30</v>
@@ -2634,13 +2726,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="B113" s="5">
-        <v>6163</v>
+        <v>6162</v>
       </c>
       <c r="C113" s="5">
-        <v>65115</v>
+        <v>65118</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>30</v>
@@ -2648,30 +2740,30 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B114" s="25">
-        <v>6164</v>
+        <v>29</v>
+      </c>
+      <c r="B114" s="5">
+        <v>6163</v>
       </c>
       <c r="C114" s="5">
-        <v>65116</v>
+        <v>65115</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B115" s="25">
-        <v>6184</v>
+      <c r="A115" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" s="24">
+        <v>6164</v>
       </c>
       <c r="C115" s="5">
-        <v>65157</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>13</v>
+        <v>65116</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,7 +2824,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B120" s="7">
         <v>6170</v>
@@ -2746,7 +2838,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B121" s="7">
         <v>6171</v>
@@ -2774,7 +2866,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B123" s="7">
         <v>6173</v>
@@ -2846,13 +2938,13 @@
       <c r="A128" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="5">
         <v>6179</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="5">
         <v>65151</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2899,263 +2991,350 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="24" t="s">
+      <c r="A132" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B132" s="25">
+      <c r="B132" s="24">
         <v>6183</v>
       </c>
-      <c r="C132" s="25">
+      <c r="C132" s="24">
         <v>65155</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B133" s="15">
+      <c r="A133" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B133" s="24">
+        <v>6184</v>
+      </c>
+      <c r="C133" s="5">
+        <v>65157</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B134" s="15">
         <v>6185</v>
       </c>
-      <c r="C133" s="15">
+      <c r="C134" s="15">
         <v>65165</v>
       </c>
-      <c r="D133" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B134" s="7">
-        <v>6186</v>
-      </c>
-      <c r="C134" s="7">
-        <v>65166</v>
-      </c>
-      <c r="D134" s="19" t="s">
+      <c r="D134" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="B135" s="7">
-        <v>6187</v>
+        <v>6186</v>
       </c>
       <c r="C135" s="7">
-        <v>65168</v>
+        <v>65166</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B136" s="5">
-        <v>6188</v>
-      </c>
-      <c r="C136" s="5">
-        <v>65169</v>
-      </c>
-      <c r="D136" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B136" s="7">
+        <v>6187</v>
+      </c>
+      <c r="C136" s="7">
+        <v>65168</v>
+      </c>
+      <c r="D136" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B137" s="5">
-        <v>6530</v>
+        <v>6188</v>
       </c>
       <c r="C137" s="5">
-        <v>65030</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>1</v>
+        <v>65169</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B138" s="5">
-        <v>6531</v>
-      </c>
-      <c r="C138" s="5">
-        <v>65082</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>5</v>
+      <c r="A138" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="32">
+        <v>6189</v>
+      </c>
+      <c r="C138" s="32">
+        <v>65171</v>
+      </c>
+      <c r="D138" s="36" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B139" s="5">
-        <v>6532</v>
-      </c>
-      <c r="C139" s="5">
-        <v>65084</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>68</v>
+      <c r="A139" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" s="32">
+        <v>6190</v>
+      </c>
+      <c r="C139" s="32">
+        <v>65175</v>
+      </c>
+      <c r="D139" s="36" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B140" s="5">
-        <v>6533</v>
-      </c>
-      <c r="C140" s="5">
-        <v>65091</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>1</v>
+      <c r="A140" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" s="32">
+        <v>6191</v>
+      </c>
+      <c r="C140" s="32">
+        <v>65172</v>
+      </c>
+      <c r="D140" s="36" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B141" s="5">
-        <v>6534</v>
-      </c>
-      <c r="C141" s="5">
-        <v>65092</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>1</v>
+      <c r="A141" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B141" s="32">
+        <v>6192</v>
+      </c>
+      <c r="C141" s="32">
+        <v>65174</v>
+      </c>
+      <c r="D141" s="36" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B142" s="5">
-        <v>6535</v>
-      </c>
-      <c r="C142" s="5">
-        <v>65093</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>1</v>
+      <c r="A142" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B142" s="35">
+        <v>6193</v>
+      </c>
+      <c r="C142" s="35">
+        <v>65170</v>
+      </c>
+      <c r="D142" s="40" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B143" s="5">
-        <v>6536</v>
+        <v>6530</v>
       </c>
       <c r="C143" s="5">
-        <v>65094</v>
+        <v>65030</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
-        <v>103</v>
+      <c r="A144" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B144" s="5">
-        <v>6537</v>
+        <v>6531</v>
       </c>
       <c r="C144" s="5">
-        <v>65095</v>
+        <v>65082</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="B145" s="5">
-        <v>6538</v>
+        <v>6532</v>
       </c>
       <c r="C145" s="5">
-        <v>65096</v>
+        <v>65084</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="B146" s="5">
-        <v>6539</v>
+        <v>6533</v>
       </c>
       <c r="C146" s="5">
-        <v>65097</v>
+        <v>65091</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>80</v>
+      <c r="A147" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B147" s="5">
-        <v>6542</v>
+        <v>6534</v>
       </c>
       <c r="C147" s="5">
-        <v>65158</v>
-      </c>
-      <c r="D147" s="20" t="s">
-        <v>20</v>
+        <v>65092</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B148" s="5">
+        <v>6535</v>
+      </c>
+      <c r="C148" s="5">
+        <v>65093</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B149" s="5">
+        <v>6536</v>
+      </c>
+      <c r="C149" s="5">
+        <v>65094</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150" s="5">
+        <v>6537</v>
+      </c>
+      <c r="C150" s="5">
+        <v>65095</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" s="33">
+        <v>6538</v>
+      </c>
+      <c r="C151" s="33">
+        <v>65096</v>
+      </c>
+      <c r="D151" s="39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152" s="33">
+        <v>6539</v>
+      </c>
+      <c r="C152" s="33">
+        <v>65097</v>
+      </c>
+      <c r="D152" s="39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B153" s="33">
+        <v>6542</v>
+      </c>
+      <c r="C153" s="33">
+        <v>65158</v>
+      </c>
+      <c r="D153" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B154" s="34">
         <v>6543</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C154" s="34">
         <v>65159</v>
       </c>
-      <c r="D148" s="20" t="s">
+      <c r="D154" s="38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B149" s="5">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" s="33">
         <v>6544</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C155" s="33">
         <v>65160</v>
       </c>
-      <c r="D149" s="20" t="s">
+      <c r="D155" s="37" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D149" xr:uid="{02B0EC23-405A-4BB4-BF43-E1C8AC1AED55}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D149">
-      <sortCondition ref="B1:B149"/>
+  <autoFilter ref="A1:D150" xr:uid="{02B0EC23-405A-4BB4-BF43-E1C8AC1AED55}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D150">
+      <sortCondition ref="A20:A150"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D155">
+    <sortCondition ref="B1:B155"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/Microcredenciais.xlsx
+++ b/data/Microcredenciais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\toja\UACurriculumData\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F6EAF5-6DFE-49E7-BE5F-8F325AA6B7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8D3548-2A95-455F-9723-3857C996A3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA933DF2-242A-4803-B1B1-A7212124EF1B}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EA933DF2-242A-4803-B1B1-A7212124EF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="175">
   <si>
     <t>Acessibilidade Digital</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>Programação CAM - Estratégias de Maquinação a 2, 3 e 5 Eixos</t>
+  </si>
+  <si>
+    <t>Avaliação da Segurança Sísmica de Edifícios Existentes de Betão Armado</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -790,7 +793,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1145,15 +1147,15 @@
   <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" zoomScale="149" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1240,7 +1242,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
@@ -1914,13 +1916,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B55" s="5">
-        <v>6099</v>
+        <v>6100</v>
       </c>
       <c r="C55" s="5">
-        <v>65080</v>
+        <v>65081</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>5</v>
@@ -1928,55 +1930,55 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B56" s="5">
-        <v>6100</v>
+        <v>6101</v>
       </c>
       <c r="C56" s="5">
-        <v>65081</v>
+        <v>65089</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>89</v>
+      <c r="A57" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B57" s="5">
-        <v>6101</v>
+        <v>6102</v>
       </c>
       <c r="C57" s="5">
-        <v>65089</v>
+        <v>65090</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>123</v>
+      <c r="A58" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="B58" s="5">
-        <v>6102</v>
+        <v>6103</v>
       </c>
       <c r="C58" s="5">
-        <v>65090</v>
+        <v>65107</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>124</v>
+      <c r="A59" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B59" s="5">
-        <v>6103</v>
+        <v>6104</v>
       </c>
       <c r="C59" s="5">
-        <v>65107</v>
+        <v>65113</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>35</v>
@@ -1984,27 +1986,27 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B60" s="5">
-        <v>6104</v>
+        <v>6105</v>
       </c>
       <c r="C60" s="5">
-        <v>65113</v>
+        <v>65108</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>126</v>
+      <c r="A61" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B61" s="5">
-        <v>6105</v>
+        <v>6106</v>
       </c>
       <c r="C61" s="5">
-        <v>65108</v>
+        <v>65112</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>35</v>
@@ -2012,13 +2014,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B62" s="5">
-        <v>6106</v>
+        <v>6107</v>
       </c>
       <c r="C62" s="5">
-        <v>65112</v>
+        <v>65111</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>35</v>
@@ -2026,13 +2028,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B63" s="5">
-        <v>6107</v>
+        <v>6108</v>
       </c>
       <c r="C63" s="5">
-        <v>65111</v>
+        <v>65109</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>35</v>
@@ -2040,13 +2042,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="B64" s="5">
-        <v>6108</v>
+        <v>6109</v>
       </c>
       <c r="C64" s="5">
-        <v>65109</v>
+        <v>65110</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>35</v>
@@ -2054,27 +2056,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B65" s="5">
-        <v>6109</v>
+        <v>6110</v>
       </c>
       <c r="C65" s="5">
-        <v>65110</v>
+        <v>60099</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B66" s="5">
-        <v>6110</v>
+        <v>6112</v>
       </c>
       <c r="C66" s="5">
-        <v>60099</v>
+        <v>60100</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>30</v>
@@ -2082,13 +2084,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B67" s="5">
-        <v>6112</v>
+        <v>6113</v>
       </c>
       <c r="C67" s="5">
-        <v>60100</v>
+        <v>60101</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>30</v>
@@ -2096,13 +2098,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B68" s="5">
-        <v>6113</v>
+        <v>6114</v>
       </c>
       <c r="C68" s="5">
-        <v>60101</v>
+        <v>60102</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>30</v>
@@ -2110,13 +2112,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B69" s="5">
-        <v>6114</v>
+        <v>6115</v>
       </c>
       <c r="C69" s="5">
-        <v>60102</v>
+        <v>60103</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>30</v>
@@ -2124,13 +2126,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B70" s="5">
-        <v>6115</v>
+        <v>6116</v>
       </c>
       <c r="C70" s="5">
-        <v>60103</v>
+        <v>60104</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>30</v>
@@ -2138,41 +2140,41 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B71" s="5">
-        <v>6116</v>
+        <v>6117</v>
       </c>
       <c r="C71" s="5">
-        <v>60104</v>
+        <v>60105</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B72" s="5">
-        <v>6117</v>
+        <v>6118</v>
       </c>
       <c r="C72" s="5">
-        <v>60105</v>
+        <v>60106</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B73" s="5">
-        <v>6118</v>
+        <v>6119</v>
       </c>
       <c r="C73" s="5">
-        <v>60106</v>
+        <v>60107</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>30</v>
@@ -2180,13 +2182,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="B74" s="5">
-        <v>6119</v>
+        <v>6121</v>
       </c>
       <c r="C74" s="5">
-        <v>60107</v>
+        <v>60089</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>30</v>
@@ -2194,13 +2196,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B75" s="5">
-        <v>6121</v>
+        <v>6122</v>
       </c>
       <c r="C75" s="5">
-        <v>60089</v>
+        <v>60090</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>30</v>
@@ -2208,13 +2210,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B76" s="5">
-        <v>6122</v>
+        <v>6123</v>
       </c>
       <c r="C76" s="5">
-        <v>60090</v>
+        <v>60091</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>30</v>
@@ -2222,13 +2224,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B77" s="5">
-        <v>6123</v>
+        <v>6124</v>
       </c>
       <c r="C77" s="5">
-        <v>60091</v>
+        <v>60092</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>30</v>
@@ -2236,13 +2238,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B78" s="5">
-        <v>6124</v>
+        <v>6125</v>
       </c>
       <c r="C78" s="5">
-        <v>60092</v>
+        <v>60093</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>30</v>
@@ -2250,13 +2252,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="B79" s="5">
-        <v>6125</v>
+        <v>6126</v>
       </c>
       <c r="C79" s="5">
-        <v>60093</v>
+        <v>60094</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>30</v>
@@ -2264,13 +2266,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B80" s="5">
-        <v>6126</v>
+        <v>6127</v>
       </c>
       <c r="C80" s="5">
-        <v>60094</v>
+        <v>60095</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>30</v>
@@ -2278,13 +2280,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B81" s="5">
-        <v>6127</v>
+        <v>6128</v>
       </c>
       <c r="C81" s="5">
-        <v>60095</v>
+        <v>60096</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>30</v>
@@ -2292,13 +2294,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B82" s="5">
-        <v>6128</v>
+        <v>6129</v>
       </c>
       <c r="C82" s="5">
-        <v>60096</v>
+        <v>60097</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>30</v>
@@ -2306,13 +2308,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="B83" s="5">
-        <v>6129</v>
+        <v>6130</v>
       </c>
       <c r="C83" s="5">
-        <v>60097</v>
+        <v>65083</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>30</v>
@@ -2320,27 +2322,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="B84" s="5">
-        <v>6130</v>
+        <v>6131</v>
       </c>
       <c r="C84" s="5">
-        <v>65083</v>
+        <v>65098</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B85" s="5">
-        <v>6131</v>
+        <v>6132</v>
       </c>
       <c r="C85" s="5">
-        <v>65098</v>
+        <v>65099</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>1</v>
@@ -2348,13 +2350,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B86" s="5">
-        <v>6132</v>
+        <v>6133</v>
       </c>
       <c r="C86" s="5">
-        <v>65099</v>
+        <v>65100</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>1</v>
@@ -2362,13 +2364,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B87" s="5">
-        <v>6133</v>
+        <v>6134</v>
       </c>
       <c r="C87" s="5">
-        <v>65100</v>
+        <v>65101</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>1</v>
@@ -2376,13 +2378,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B88" s="5">
-        <v>6134</v>
+        <v>6135</v>
       </c>
       <c r="C88" s="5">
-        <v>65101</v>
+        <v>65102</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>1</v>
@@ -2390,13 +2392,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B89" s="5">
-        <v>6135</v>
+        <v>6136</v>
       </c>
       <c r="C89" s="5">
-        <v>65102</v>
+        <v>65122</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>1</v>
@@ -2404,13 +2406,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B90" s="5">
-        <v>6136</v>
+        <v>6137</v>
       </c>
       <c r="C90" s="5">
-        <v>65122</v>
+        <v>65103</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>1</v>
@@ -2418,13 +2420,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B91" s="5">
-        <v>6137</v>
+        <v>6138</v>
       </c>
       <c r="C91" s="5">
-        <v>65103</v>
+        <v>65104</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>1</v>
@@ -2432,13 +2434,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B92" s="5">
-        <v>6138</v>
+        <v>6139</v>
       </c>
       <c r="C92" s="5">
-        <v>65104</v>
+        <v>65105</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>1</v>
@@ -2446,27 +2448,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="B93" s="5">
-        <v>6139</v>
+        <v>6140</v>
       </c>
       <c r="C93" s="5">
-        <v>65105</v>
+        <v>65123</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B94" s="5">
-        <v>6140</v>
+        <v>6141</v>
       </c>
       <c r="C94" s="5">
-        <v>65123</v>
+        <v>65124</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>20</v>
@@ -2474,13 +2476,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="B95" s="5">
-        <v>6141</v>
+        <v>6142</v>
       </c>
       <c r="C95" s="5">
-        <v>65124</v>
+        <v>65125</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>20</v>
@@ -2488,27 +2490,27 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="B96" s="5">
-        <v>6142</v>
+        <v>6144</v>
       </c>
       <c r="C96" s="5">
-        <v>65125</v>
+        <v>65134</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B97" s="5">
-        <v>6144</v>
+        <v>6145</v>
       </c>
       <c r="C97" s="5">
-        <v>65134</v>
+        <v>65127</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>10</v>
@@ -2516,13 +2518,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B98" s="5">
-        <v>6145</v>
+        <v>6146</v>
       </c>
       <c r="C98" s="5">
-        <v>65127</v>
+        <v>65130</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>10</v>
@@ -2530,13 +2532,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B99" s="5">
-        <v>6146</v>
+        <v>6147</v>
       </c>
       <c r="C99" s="5">
-        <v>65130</v>
+        <v>65131</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>10</v>
@@ -2544,55 +2546,55 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B100" s="5">
-        <v>6147</v>
+        <v>6148</v>
       </c>
       <c r="C100" s="5">
-        <v>65131</v>
+        <v>65132</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="B101" s="5">
-        <v>6148</v>
+        <v>6149</v>
       </c>
       <c r="C101" s="5">
-        <v>65132</v>
+        <v>65136</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="B102" s="5">
-        <v>6149</v>
+        <v>6150</v>
       </c>
       <c r="C102" s="5">
-        <v>65136</v>
+        <v>65133</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B103" s="5">
-        <v>6150</v>
+        <v>6151</v>
       </c>
       <c r="C103" s="5">
-        <v>65133</v>
+        <v>65129</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>10</v>
@@ -2600,13 +2602,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B104" s="5">
-        <v>6151</v>
+        <v>6152</v>
       </c>
       <c r="C104" s="5">
-        <v>65129</v>
+        <v>65137</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -2614,13 +2616,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="B105" s="5">
-        <v>6152</v>
+        <v>6153</v>
       </c>
       <c r="C105" s="5">
-        <v>65137</v>
+        <v>65128</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -2628,55 +2630,55 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B106" s="5">
-        <v>6153</v>
+        <v>6154</v>
       </c>
       <c r="C106" s="5">
-        <v>65128</v>
+        <v>65135</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B107" s="5">
-        <v>6154</v>
-      </c>
-      <c r="C107" s="5">
-        <v>65135</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>10</v>
+      <c r="A107" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" s="12">
+        <v>6157</v>
+      </c>
+      <c r="C107" s="12">
+        <v>65140</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B108" s="12">
-        <v>6157</v>
-      </c>
-      <c r="C108" s="12">
-        <v>65140</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>24</v>
+      <c r="A108" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="5">
+        <v>6158</v>
+      </c>
+      <c r="C108" s="5">
+        <v>65114</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="B109" s="5">
-        <v>6158</v>
+        <v>6159</v>
       </c>
       <c r="C109" s="5">
-        <v>65114</v>
+        <v>65121</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>30</v>
@@ -2684,13 +2686,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B110" s="5">
-        <v>6159</v>
+        <v>155</v>
+      </c>
+      <c r="B110" s="11">
+        <v>6160</v>
       </c>
       <c r="C110" s="5">
-        <v>65121</v>
+        <v>65120</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>30</v>
@@ -2698,13 +2700,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B111" s="11">
-        <v>6160</v>
+        <v>156</v>
+      </c>
+      <c r="B111" s="5">
+        <v>6161</v>
       </c>
       <c r="C111" s="5">
-        <v>65120</v>
+        <v>65119</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>30</v>
@@ -2712,13 +2714,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B112" s="5">
-        <v>6161</v>
+        <v>6162</v>
       </c>
       <c r="C112" s="5">
-        <v>65119</v>
+        <v>65118</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>30</v>
@@ -2726,13 +2728,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="B113" s="5">
-        <v>6162</v>
+        <v>6163</v>
       </c>
       <c r="C113" s="5">
-        <v>65118</v>
+        <v>65115</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>30</v>
@@ -2740,13 +2742,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B114" s="5">
-        <v>6163</v>
+        <v>158</v>
+      </c>
+      <c r="B114" s="24">
+        <v>6164</v>
       </c>
       <c r="C114" s="5">
-        <v>65115</v>
+        <v>65116</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>30</v>
@@ -2754,13 +2756,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B115" s="24">
-        <v>6164</v>
+        <v>31</v>
+      </c>
+      <c r="B115" s="5">
+        <v>6165</v>
       </c>
       <c r="C115" s="5">
-        <v>65116</v>
+        <v>65117</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>30</v>
@@ -2768,27 +2770,27 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B116" s="5">
-        <v>6165</v>
-      </c>
-      <c r="C116" s="5">
-        <v>65117</v>
+        <v>6166</v>
+      </c>
+      <c r="C116" s="9">
+        <v>42280</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B117" s="5">
-        <v>6166</v>
-      </c>
-      <c r="C117" s="9">
-        <v>42280</v>
+        <v>6167</v>
+      </c>
+      <c r="C117" s="5">
+        <v>41010</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>15</v>
@@ -2796,41 +2798,41 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B118" s="5">
-        <v>6167</v>
+        <v>6169</v>
       </c>
       <c r="C118" s="5">
-        <v>41010</v>
+        <v>65141</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B119" s="5">
-        <v>6169</v>
-      </c>
-      <c r="C119" s="5">
-        <v>65141</v>
-      </c>
-      <c r="D119" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" s="7">
+        <v>6170</v>
+      </c>
+      <c r="C119" s="7">
+        <v>65142</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B120" s="7">
-        <v>6170</v>
+        <v>6171</v>
       </c>
       <c r="C120" s="7">
-        <v>65142</v>
+        <v>65143</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>13</v>
@@ -2838,13 +2840,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B121" s="7">
-        <v>6171</v>
+        <v>6172</v>
       </c>
       <c r="C121" s="7">
-        <v>65143</v>
+        <v>65144</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>13</v>
@@ -2852,13 +2854,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B122" s="7">
-        <v>6172</v>
+        <v>6173</v>
       </c>
       <c r="C122" s="7">
-        <v>65144</v>
+        <v>65145</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>13</v>
@@ -2866,27 +2868,27 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B123" s="7">
-        <v>6173</v>
-      </c>
-      <c r="C123" s="7">
-        <v>65145</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="B123" s="5">
+        <v>6174</v>
+      </c>
+      <c r="C123" s="5">
+        <v>65146</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B124" s="5">
-        <v>6174</v>
+        <v>6175</v>
       </c>
       <c r="C124" s="5">
-        <v>65146</v>
+        <v>65147</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>3</v>
@@ -2894,13 +2896,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B125" s="5">
-        <v>6175</v>
+        <v>6176</v>
       </c>
       <c r="C125" s="5">
-        <v>65147</v>
+        <v>65148</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>3</v>
@@ -2908,55 +2910,55 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" s="5">
-        <v>6176</v>
-      </c>
-      <c r="C126" s="5">
-        <v>65148</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="B126" s="7">
+        <v>6177</v>
+      </c>
+      <c r="C126" s="7">
+        <v>65150</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" s="7">
-        <v>6177</v>
-      </c>
-      <c r="C127" s="7">
-        <v>65150</v>
-      </c>
-      <c r="D127" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B127" s="5">
+        <v>6179</v>
+      </c>
+      <c r="C127" s="5">
+        <v>65151</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B128" s="5">
-        <v>6179</v>
-      </c>
-      <c r="C128" s="5">
-        <v>65151</v>
-      </c>
-      <c r="D128" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B128" s="7">
+        <v>6180</v>
+      </c>
+      <c r="C128" s="7">
+        <v>65152</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B129" s="7">
-        <v>6180</v>
+        <v>6181</v>
       </c>
       <c r="C129" s="7">
-        <v>65152</v>
+        <v>65153</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>15</v>
@@ -2964,184 +2966,184 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B130" s="7">
-        <v>6181</v>
+        <v>6182</v>
       </c>
       <c r="C130" s="7">
-        <v>65153</v>
+        <v>65154</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B131" s="7">
-        <v>6182</v>
-      </c>
-      <c r="C131" s="7">
-        <v>65154</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="A131" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B131" s="24">
+        <v>6183</v>
+      </c>
+      <c r="C131" s="24">
+        <v>65155</v>
+      </c>
+      <c r="D131" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="23" t="s">
-        <v>54</v>
+      <c r="A132" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B132" s="24">
-        <v>6183</v>
-      </c>
-      <c r="C132" s="24">
-        <v>65155</v>
-      </c>
-      <c r="D132" s="25" t="s">
-        <v>15</v>
+        <v>6184</v>
+      </c>
+      <c r="C132" s="5">
+        <v>65157</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B133" s="24">
-        <v>6184</v>
-      </c>
-      <c r="C133" s="5">
-        <v>65157</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>13</v>
+      <c r="A133" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B133" s="15">
+        <v>6185</v>
+      </c>
+      <c r="C133" s="15">
+        <v>65165</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B134" s="15">
-        <v>6185</v>
-      </c>
-      <c r="C134" s="15">
-        <v>65165</v>
-      </c>
-      <c r="D134" s="16" t="s">
+      <c r="A134" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="7">
+        <v>6186</v>
+      </c>
+      <c r="C134" s="7">
+        <v>65166</v>
+      </c>
+      <c r="D134" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="B135" s="7">
-        <v>6186</v>
+        <v>6187</v>
       </c>
       <c r="C135" s="7">
-        <v>65166</v>
+        <v>65168</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B136" s="7">
-        <v>6187</v>
-      </c>
-      <c r="C136" s="7">
-        <v>65168</v>
-      </c>
-      <c r="D136" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B136" s="5">
+        <v>6188</v>
+      </c>
+      <c r="C136" s="5">
+        <v>65169</v>
+      </c>
+      <c r="D136" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B137" s="5">
-        <v>6188</v>
-      </c>
-      <c r="C137" s="5">
-        <v>65169</v>
-      </c>
-      <c r="D137" s="20" t="s">
-        <v>13</v>
+      <c r="A137" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="31">
+        <v>6189</v>
+      </c>
+      <c r="C137" s="31">
+        <v>65171</v>
+      </c>
+      <c r="D137" s="35" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B138" s="32">
-        <v>6189</v>
-      </c>
-      <c r="C138" s="32">
-        <v>65171</v>
-      </c>
-      <c r="D138" s="36" t="s">
+      <c r="A138" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" s="31">
+        <v>6190</v>
+      </c>
+      <c r="C138" s="31">
+        <v>65175</v>
+      </c>
+      <c r="D138" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B139" s="32">
-        <v>6190</v>
-      </c>
-      <c r="C139" s="32">
-        <v>65175</v>
-      </c>
-      <c r="D139" s="36" t="s">
+      <c r="A139" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B139" s="31">
+        <v>6191</v>
+      </c>
+      <c r="C139" s="31">
+        <v>65172</v>
+      </c>
+      <c r="D139" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B140" s="32">
-        <v>6191</v>
-      </c>
-      <c r="C140" s="32">
-        <v>65172</v>
-      </c>
-      <c r="D140" s="36" t="s">
+      <c r="A140" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B140" s="31">
+        <v>6192</v>
+      </c>
+      <c r="C140" s="31">
+        <v>65174</v>
+      </c>
+      <c r="D140" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B141" s="32">
-        <v>6192</v>
-      </c>
-      <c r="C141" s="32">
-        <v>65174</v>
-      </c>
-      <c r="D141" s="36" t="s">
+      <c r="A141" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B141" s="34">
+        <v>6193</v>
+      </c>
+      <c r="C141" s="34">
+        <v>65170</v>
+      </c>
+      <c r="D141" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B142" s="35">
-        <v>6193</v>
-      </c>
-      <c r="C142" s="35">
-        <v>65170</v>
-      </c>
-      <c r="D142" s="40" t="s">
-        <v>30</v>
+      <c r="A142" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B142" s="34">
+        <v>6194</v>
+      </c>
+      <c r="C142" s="34">
+        <v>65173</v>
+      </c>
+      <c r="D142" s="39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3257,72 +3259,72 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="30" t="s">
+      <c r="A151" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B151" s="33">
+      <c r="B151" s="32">
         <v>6538</v>
       </c>
-      <c r="C151" s="33">
+      <c r="C151" s="32">
         <v>65096</v>
       </c>
-      <c r="D151" s="39" t="s">
+      <c r="D151" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="30" t="s">
+      <c r="A152" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B152" s="33">
+      <c r="B152" s="32">
         <v>6539</v>
       </c>
-      <c r="C152" s="33">
+      <c r="C152" s="32">
         <v>65097</v>
       </c>
-      <c r="D152" s="39" t="s">
+      <c r="D152" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="27" t="s">
+      <c r="A153" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B153" s="33">
+      <c r="B153" s="32">
         <v>6542</v>
       </c>
-      <c r="C153" s="33">
+      <c r="C153" s="32">
         <v>65158</v>
       </c>
-      <c r="D153" s="37" t="s">
+      <c r="D153" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="29" t="s">
+      <c r="A154" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B154" s="34">
+      <c r="B154" s="33">
         <v>6543</v>
       </c>
-      <c r="C154" s="34">
+      <c r="C154" s="33">
         <v>65159</v>
       </c>
-      <c r="D154" s="38" t="s">
+      <c r="D154" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B155" s="33">
+      <c r="B155" s="32">
         <v>6544</v>
       </c>
-      <c r="C155" s="33">
+      <c r="C155" s="32">
         <v>65160</v>
       </c>
-      <c r="D155" s="37" t="s">
+      <c r="D155" s="36" t="s">
         <v>20</v>
       </c>
     </row>
